--- a/lp_tenant_importer/samples/core_config.xlsx
+++ b/lp_tenant_importer/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="805">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -815,6 +815,9 @@
     <t xml:space="preserve">10.44.35.14</t>
   </si>
   <si>
+    <t xml:space="preserve">id_rsyslog_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rsyslog-1</t>
   </si>
   <si>
@@ -824,6 +827,15 @@
     <t xml:space="preserve">10.10.25.1</t>
   </si>
   <si>
+    <t xml:space="preserve">id_rsyslog_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsyslog-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.25.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">device_name</t>
   </si>
   <si>
@@ -938,21 +950,36 @@
     <t xml:space="preserve">formsubmit</t>
   </si>
   <si>
+    <t xml:space="preserve">uses_proxy</t>
+  </si>
+  <si>
     <t xml:space="preserve">7f6b797e-5d4d-4cc9-9919-09fdfe464d32</t>
   </si>
   <si>
+    <t xml:space="preserve">10.10.25.1 | 10.10.25.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core-ojs | core-ojs.local.ld | 10.93.8.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-tajs</t>
   </si>
   <si>
     <t xml:space="preserve">09070b06828b4215822321917a596bb2</t>
   </si>
   <si>
+    <t xml:space="preserve">core-tajs | core-tajs.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-ijs</t>
   </si>
   <si>
     <t xml:space="preserve">059ac44f09d742ad81769dbee83102f9</t>
   </si>
   <si>
+    <t xml:space="preserve">core-ijs | core-ijs.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-csoc-prod-esec-pri-fw1</t>
   </si>
   <si>
@@ -962,6 +989,9 @@
     <t xml:space="preserve">03b48f82-ed5e-4dde-a57b-f67e0131d754</t>
   </si>
   <si>
+    <t xml:space="preserve">core-csoc-prod-esec-pri-fw1 | core-csoc-prod-esec-pri-fw1.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-sccoe-csoc-rfsa-rf-cas</t>
   </si>
   <si>
@@ -974,6 +1004,9 @@
     <t xml:space="preserve">e0519154-fe0b-4bc5-97a9-12f27c9c4469</t>
   </si>
   <si>
+    <t xml:space="preserve">sccoe-csoc-rfsa-rf-cas | sccoe-csoc-rfsa-rf-cas.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-tenable.sc</t>
   </si>
   <si>
@@ -986,6 +1019,9 @@
     <t xml:space="preserve">b7dfd132-1878-47ab-b38b-0de46a166250</t>
   </si>
   <si>
+    <t xml:space="preserve">core-tenable.sc | core-tenable.sc.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-edr-log</t>
   </si>
   <si>
@@ -995,6 +1031,9 @@
     <t xml:space="preserve">54a91391-dd5e-440e-873b-a4c1bdefefe3</t>
   </si>
   <si>
+    <t xml:space="preserve">core-edr-log | core-edr-log.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-vs1-p001esadc</t>
   </si>
   <si>
@@ -1004,12 +1043,18 @@
     <t xml:space="preserve">bf6fe747-b99f-4293-b849-c309fd7a6afe</t>
   </si>
   <si>
+    <t xml:space="preserve">core-vs1-p001esadc | core-vs1-p001esadc.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-vs2-p001esadc</t>
   </si>
   <si>
     <t xml:space="preserve">09317ac83e8a47029af7944ae5bf9fed</t>
   </si>
   <si>
+    <t xml:space="preserve">core-vs2-p001esadc | core-vs2-p001esadc.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-deception-acm</t>
   </si>
   <si>
@@ -1022,6 +1067,9 @@
     <t xml:space="preserve">e902cb0f-fd13-4fd3-b9f1-13402d6481a9</t>
   </si>
   <si>
+    <t xml:space="preserve">core-deception-acm | core-deception-acm.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-vs1-p001esarsam</t>
   </si>
   <si>
@@ -1031,10 +1079,16 @@
     <t xml:space="preserve">5a03378e-d404-4012-a784-b505739a5f5f</t>
   </si>
   <si>
+    <t xml:space="preserve">core-vs1-p001esarsam | core-vs1-p001esarsam.local.ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">syslog|device-core-vs2-p001esarsam</t>
   </si>
   <si>
     <t xml:space="preserve">3f5b5a44e3da4d298aa121a74100318d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core-vs2-p001esarsam | core-vs2-p001esarsam.local.ld</t>
   </si>
   <si>
     <t xml:space="preserve">group_id</t>
@@ -2685,12 +2739,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2720,6 +2773,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2771,7 +2836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2788,7 +2853,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3133,7 +3202,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
@@ -3145,7 +3214,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>155</v>
@@ -3153,7 +3222,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>220</v>
@@ -3166,12 +3235,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>241</v>
@@ -3184,108 +3253,108 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D4" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D7" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D8" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3294,74 +3363,74 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D10" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="D12" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D13" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3390,181 +3459,181 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,69 +3641,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="C2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB2" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3645,16 +3714,16 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="AJ2" s="1" t="n">
         <v>1</v>
@@ -3663,32 +3732,32 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="AN2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU2" s="1" t="n">
         <v>0</v>
@@ -3700,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,60 +3777,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="AB3" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3772,13 +3841,13 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -3787,32 +3856,32 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="AN3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>0</v>
@@ -3824,7 +3893,7 @@
         <v>100</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3842,56 +3911,56 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB4" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3902,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
@@ -3917,32 +3986,32 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="AN4" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0</v>
@@ -3954,7 +4023,7 @@
         <v>100</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C5" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3972,56 +4041,56 @@
         <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB5" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4032,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
@@ -4047,32 +4116,32 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="AN5" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>0</v>
@@ -4084,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,60 +4161,60 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="AB6" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4156,13 +4225,13 @@
         <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -4171,32 +4240,32 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="AN6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>0</v>
@@ -4212,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4298,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4239,13 +4308,13 @@
         <v>7200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4255,43 +4324,43 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB7" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4302,13 +4371,13 @@
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>2</v>
@@ -4317,32 +4386,32 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="AN7" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>0</v>
@@ -4358,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="C8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4382,13 +4451,13 @@
         <v>3600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4398,43 +4467,43 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB8" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4445,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ8" s="1" t="n">
         <v>1</v>
@@ -4460,32 +4529,32 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AN8" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>0</v>
@@ -4501,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,26 +4581,26 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4541,43 +4610,43 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB9" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4588,16 +4657,16 @@
         <v>1</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="AJ9" s="1" t="n">
         <v>1</v>
@@ -4606,32 +4675,32 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AN9" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>0</v>
@@ -4647,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4727,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4668,13 +4737,13 @@
         <v>3600</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4684,43 +4753,43 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4731,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>1</v>
@@ -4746,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="AN10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4759,19 +4828,19 @@
         <v>171</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU10" s="1" t="n">
         <v>0</v>
@@ -4787,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,63 +4867,63 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="AB11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4865,13 +4934,13 @@
         <v>1</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="AJ11" s="1" t="n">
         <v>0</v>
@@ -4880,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="AN11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4893,19 +4962,19 @@
         <v>171</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU11" s="1" t="n">
         <v>0</v>
@@ -4921,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +5001,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="C12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4942,56 +5011,56 @@
         <v>43200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB12" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5002,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>12</v>
@@ -5017,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="AN12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5030,19 +5099,19 @@
         <v>171</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU12" s="1" t="n">
         <v>0</v>
@@ -5058,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,72 +5138,72 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K13" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB13" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5145,16 +5214,16 @@
         <v>1</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="AJ13" s="1" t="n">
         <v>0</v>
@@ -5163,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="AU13" s="1" t="n">
         <v>0</v>
@@ -5179,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5259,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5200,13 +5269,13 @@
         <v>7200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5216,43 +5285,43 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5263,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>2</v>
@@ -5278,32 +5347,32 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="AN14" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>0</v>
@@ -5319,13 +5388,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5402,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="C15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5343,13 +5412,13 @@
         <v>7200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5359,43 +5428,43 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5406,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>2</v>
@@ -5421,32 +5490,32 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="AN15" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="AU15" s="1" t="n">
         <v>0</v>
@@ -5462,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5545,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="C16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5486,13 +5555,13 @@
         <v>7200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5502,43 +5571,43 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T16" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5549,13 +5618,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>2</v>
@@ -5564,32 +5633,32 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="AN16" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="AU16" s="1" t="n">
         <v>0</v>
@@ -5605,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,26 +5685,26 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="C17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K17" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5645,43 +5714,43 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T17" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB17" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5692,16 +5761,16 @@
         <v>1</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="AJ17" s="1" t="n">
         <v>0</v>
@@ -5710,32 +5779,32 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AN17" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="AU17" s="1" t="n">
         <v>1</v>
@@ -5751,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,7 +5831,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="C18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5772,13 +5841,13 @@
         <v>3600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5788,43 +5857,43 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5835,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>1</v>
@@ -5850,32 +5919,32 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AN18" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AU18" s="1" t="n">
         <v>0</v>
@@ -5891,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,7 +5971,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5912,13 +5981,13 @@
         <v>3600</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5928,43 +5997,43 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5975,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ19" s="1" t="n">
         <v>1</v>
@@ -5990,32 +6059,32 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AN19" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AU19" s="1" t="n">
         <v>0</v>
@@ -6031,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,26 +6111,26 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="C20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K20" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6071,43 +6140,43 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB20" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6118,16 +6187,16 @@
         <v>1</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="AJ20" s="1" t="n">
         <v>0</v>
@@ -6136,32 +6205,32 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AN20" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP20" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AR20" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT20" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="AU20" s="1" t="n">
         <v>1</v>
@@ -6177,10 +6246,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,26 +6257,26 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="C21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K21" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6217,43 +6286,43 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T21" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB21" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6264,16 +6333,16 @@
         <v>1</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0</v>
@@ -6282,32 +6351,32 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="AN21" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="AU21" s="1" t="n">
         <v>1</v>
@@ -6323,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,69 +6403,69 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB22" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6407,16 +6476,16 @@
         <v>1</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="AJ22" s="1" t="n">
         <v>0</v>
@@ -6425,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="AN22" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6438,19 +6507,19 @@
         <v>171</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU22" s="1" t="n">
         <v>1</v>
@@ -6466,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,69 +6549,69 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="C23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB23" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6553,16 +6622,16 @@
         <v>1</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="AJ23" s="1" t="n">
         <v>0</v>
@@ -6571,32 +6640,32 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="AN23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>0</v>
@@ -6612,13 +6681,13 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BD23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,7 +6695,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="C24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6636,56 +6705,56 @@
         <v>3600</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K24" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB24" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6696,13 +6765,13 @@
         <v>1</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ24" s="1" t="n">
         <v>1</v>
@@ -6711,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="AN24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6724,19 +6793,19 @@
         <v>171</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU24" s="1" t="n">
         <v>0</v>
@@ -6752,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,7 +6832,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="C25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6773,56 +6842,56 @@
         <v>3600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K25" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB25" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6833,13 +6902,13 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>1</v>
@@ -6848,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="AN25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6861,19 +6930,19 @@
         <v>171</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU25" s="1" t="n">
         <v>0</v>
@@ -6889,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,26 +6969,26 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C26" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6929,43 +6998,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T26" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB26" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6976,16 +7045,16 @@
         <v>1</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0</v>
@@ -6994,10 +7063,10 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="AN26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7007,19 +7076,19 @@
         <v>171</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU26" s="1" t="n">
         <v>1</v>
@@ -7035,13 +7104,13 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BD26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,26 +7118,26 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="C27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K27" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7078,43 +7147,43 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB27" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7125,16 +7194,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="AJ27" s="1" t="n">
         <v>0</v>
@@ -7143,32 +7212,32 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="AN27" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU27" s="1" t="n">
         <v>0</v>
@@ -7184,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BD27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,26 +7267,26 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="C28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K28" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7227,43 +7296,43 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB28" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7274,16 +7343,16 @@
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="AJ28" s="1" t="n">
         <v>0</v>
@@ -7292,32 +7361,32 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="AN28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU28" s="1" t="n">
         <v>0</v>
@@ -7333,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BD28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,7 +7416,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C29" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7357,56 +7426,56 @@
         <v>3600</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K29" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB29" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7417,13 +7486,13 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ29" s="1" t="n">
         <v>1</v>
@@ -7432,32 +7501,32 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="AN29" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="AU29" s="1" t="n">
         <v>0</v>
@@ -7473,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,69 +7556,69 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="C30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB30" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7560,16 +7629,16 @@
         <v>1</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="AJ30" s="1" t="n">
         <v>0</v>
@@ -7578,32 +7647,32 @@
         <v>0</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="AN30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="AU30" s="1" t="n">
         <v>0</v>
@@ -7619,16 +7688,16 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,7 +7705,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="C31" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7646,56 +7715,56 @@
         <v>900</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T31" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB31" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7706,13 +7775,13 @@
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ31" s="1" t="n">
         <v>0</v>
@@ -7721,32 +7790,32 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="AN31" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="AU31" s="1" t="n">
         <v>0</v>
@@ -7762,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,69 +7842,69 @@
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="C32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T32" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB32" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7846,16 +7915,16 @@
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="AJ32" s="1" t="n">
         <v>0</v>
@@ -7864,32 +7933,32 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="AM32" s="1" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="AN32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="AU32" s="1" t="n">
         <v>1</v>
@@ -7905,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +7988,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="C33" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7929,56 +7998,56 @@
         <v>3600</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K33" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T33" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB33" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7989,13 +8058,13 @@
         <v>1</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ33" s="1" t="n">
         <v>1</v>
@@ -8004,32 +8073,32 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="AM33" s="1" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="AN33" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="AU33" s="1" t="n">
         <v>0</v>
@@ -8045,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,69 +8128,69 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8132,16 +8201,16 @@
         <v>1</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="AJ34" s="1" t="n">
         <v>0</v>
@@ -8150,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="AN34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8163,19 +8232,19 @@
         <v>171</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU34" s="1" t="n">
         <v>0</v>
@@ -8191,16 +8260,16 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="BB34" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,7 +8277,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8218,56 +8287,56 @@
         <v>3600</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K35" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="T35" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB35" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8278,13 +8347,13 @@
         <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AJ35" s="1" t="n">
         <v>1</v>
@@ -8293,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="AM35" s="1" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="AN35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8306,19 +8375,19 @@
         <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AU35" s="1" t="n">
         <v>0</v>
@@ -8334,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,69 +8414,69 @@
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB36" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8418,16 +8487,16 @@
         <v>1</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="AJ36" s="1" t="n">
         <v>0</v>
@@ -8436,32 +8505,32 @@
         <v>0</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="AN36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="AU36" s="1" t="n">
         <v>0</v>
@@ -8477,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,69 +8563,69 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="C37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB37" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8567,16 +8636,16 @@
         <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="AJ37" s="1" t="n">
         <v>1</v>
@@ -8585,32 +8654,32 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="AN37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="AU37" s="1" t="n">
         <v>0</v>
@@ -8626,10 +8695,10 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,69 +8706,69 @@
         <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AB38" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8710,16 +8779,16 @@
         <v>1</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="AJ38" s="1" t="n">
         <v>0</v>
@@ -8728,32 +8797,32 @@
         <v>0</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="AM38" s="1" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="AN38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="AS38" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="AU38" s="1" t="n">
         <v>0</v>
@@ -8769,16 +8838,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="BB38" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -11080,28 +11149,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11596,16 +11665,20 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="F14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -11621,6 +11694,39 @@
         <v>222</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -11640,48 +11746,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="62.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11689,100 +11795,100 @@
         <v>206</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>212</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11793,37 +11899,43 @@
         <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>126</v>
+      <c r="AD2" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11834,37 +11946,43 @@
         <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>126</v>
+      <c r="AD3" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11875,37 +11993,43 @@
         <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>126</v>
+      <c r="AD4" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11916,37 +12040,43 @@
         <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>126</v>
+      <c r="AD5" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,37 +12087,43 @@
         <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>126</v>
+      <c r="AD6" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11998,40 +12134,46 @@
         <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>126</v>
+      <c r="AD7" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12042,40 +12184,46 @@
         <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>126</v>
+      <c r="AD8" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12086,40 +12234,46 @@
         <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>126</v>
+      <c r="AD9" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12130,37 +12284,43 @@
         <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>126</v>
+      <c r="AD10" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12171,37 +12331,43 @@
         <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>126</v>
+      <c r="AD11" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12212,37 +12378,43 @@
         <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>126</v>
+      <c r="AD12" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12253,37 +12425,77 @@
         <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>126</v>
+      <c r="AD13" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/lp_tenant_importer/samples/core_config.xlsx
+++ b/lp_tenant_importer/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="804">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -693,9 +693,6 @@
   </si>
   <si>
     <t xml:space="preserve">windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64f9287e8e8df427ea06b3d1</t>
   </si>
   <si>
     <t xml:space="preserve">Major</t>
@@ -2743,7 +2740,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2779,12 +2776,7 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2857,7 +2849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3202,7 +3194,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
@@ -3214,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>155</v>
@@ -3222,7 +3214,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>220</v>
@@ -3235,126 +3227,126 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3363,74 +3355,74 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3459,181 +3451,181 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,69 +3633,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K2" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB2" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3714,50 +3706,50 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AN2" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU2" s="1" t="n">
         <v>0</v>
@@ -3769,7 +3761,7 @@
         <v>100</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,60 +3769,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="AB3" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3841,13 +3833,13 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -3856,32 +3848,32 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AN3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>0</v>
@@ -3893,7 +3885,7 @@
         <v>100</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3911,56 +3903,56 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB4" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3971,14 +3963,14 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
       </c>
@@ -3986,32 +3978,32 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AN4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AN4" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0</v>
@@ -4023,7 +4015,7 @@
         <v>100</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4041,56 +4033,56 @@
         <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB5" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4101,14 +4093,14 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
       </c>
@@ -4116,32 +4108,32 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AN5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>0</v>
@@ -4153,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,60 +4153,60 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="AB6" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4225,13 +4217,13 @@
         <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -4240,32 +4232,32 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AN6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="AS6" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>0</v>
@@ -4281,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4308,59 +4300,59 @@
         <v>7200</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB7" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4371,13 +4363,13 @@
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>2</v>
@@ -4386,32 +4378,32 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN7" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN7" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>0</v>
@@ -4427,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4433,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4451,59 +4443,59 @@
         <v>3600</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB8" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4514,47 +4506,47 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AN8" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AQ8" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="AR8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>0</v>
@@ -4570,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,72 +4573,72 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB9" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4657,50 +4649,50 @@
         <v>1</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM9" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="AN9" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP9" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="AQ9" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="AR9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>0</v>
@@ -4716,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4719,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4737,13 +4729,13 @@
         <v>3600</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4753,43 +4745,43 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="W10" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4800,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>1</v>
@@ -4815,10 +4807,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4828,19 +4820,19 @@
         <v>171</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU10" s="1" t="n">
         <v>0</v>
@@ -4856,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,92 +4859,92 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="W11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="AJ11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM11" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="AB11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="AN11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4962,19 +4954,19 @@
         <v>171</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU11" s="1" t="n">
         <v>0</v>
@@ -4990,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BG11" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5011,56 +5003,56 @@
         <v>43200</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="Y12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB12" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5071,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>12</v>
@@ -5086,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AN12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5099,19 +5091,19 @@
         <v>171</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU12" s="1" t="n">
         <v>0</v>
@@ -5127,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,93 +5130,93 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="s">
+      <c r="X13" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="AJ13" s="1" t="n">
         <v>0</v>
       </c>
@@ -5232,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AU13" s="1" t="n">
         <v>0</v>
@@ -5248,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,7 +5251,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5269,13 +5261,13 @@
         <v>7200</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5285,43 +5277,43 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="Y14" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5332,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>2</v>
@@ -5347,32 +5339,32 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN14" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN14" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AQ14" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="AR14" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>0</v>
@@ -5388,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,7 +5394,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5412,13 +5404,13 @@
         <v>7200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5428,43 +5420,43 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="W15" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="Y15" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5475,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>2</v>
@@ -5490,32 +5482,32 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN15" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP15" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN15" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AQ15" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="AR15" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU15" s="1" t="n">
         <v>0</v>
@@ -5531,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5555,13 +5547,13 @@
         <v>7200</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5571,43 +5563,43 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="W16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="Y16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5618,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>2</v>
@@ -5633,32 +5625,32 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM16" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AN16" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP16" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AN16" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT16" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="AU16" s="1" t="n">
         <v>0</v>
@@ -5674,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,72 +5677,72 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K17" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K17" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="Y17" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB17" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5761,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AJ17" s="1" t="n">
         <v>0</v>
@@ -5779,32 +5771,32 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM17" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN17" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AN17" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="AU17" s="1" t="n">
         <v>1</v>
@@ -5820,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,7 +5823,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5841,13 +5833,13 @@
         <v>3600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5857,43 +5849,43 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="W18" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="Y18" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5904,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>1</v>
@@ -5919,32 +5911,32 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN18" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP18" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AN18" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AQ18" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="AR18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU18" s="1" t="n">
         <v>0</v>
@@ -5960,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,7 +5963,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5981,13 +5973,13 @@
         <v>3600</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5997,43 +5989,43 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="W19" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="Y19" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6044,13 +6036,13 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ19" s="1" t="n">
         <v>1</v>
@@ -6059,32 +6051,32 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN19" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP19" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="AQ19" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="AR19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU19" s="1" t="n">
         <v>0</v>
@@ -6100,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,72 +6103,72 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K20" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="Y20" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB20" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6187,16 +6179,16 @@
         <v>1</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AJ20" s="1" t="n">
         <v>0</v>
@@ -6205,32 +6197,32 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AN20" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AQ20" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="AR20" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT20" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="AU20" s="1" t="n">
         <v>1</v>
@@ -6246,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,72 +6249,72 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K21" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="Y21" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB21" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6333,16 +6325,16 @@
         <v>1</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0</v>
@@ -6351,32 +6343,32 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM21" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AN21" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP21" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AN21" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AR21" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="AS21" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU21" s="1" t="n">
         <v>1</v>
@@ -6392,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,69 +6395,69 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K22" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="Y22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB22" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6476,16 +6468,16 @@
         <v>1</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AJ22" s="1" t="n">
         <v>0</v>
@@ -6494,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AN22" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6507,19 +6499,19 @@
         <v>171</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU22" s="1" t="n">
         <v>1</v>
@@ -6535,13 +6527,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,69 +6541,69 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K23" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K23" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="Y23" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB23" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6622,50 +6614,50 @@
         <v>1</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF23" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AJ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AM23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="AJ23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AN23" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP23" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="AN23" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>0</v>
@@ -6681,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,7 +6687,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6705,56 +6697,56 @@
         <v>3600</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K24" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K24" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="Y24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB24" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6765,25 +6757,25 @@
         <v>1</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF24" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM24" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="AN24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6793,19 +6785,19 @@
         <v>171</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU24" s="1" t="n">
         <v>0</v>
@@ -6821,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,7 +6824,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6842,56 +6834,56 @@
         <v>3600</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K25" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K25" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="Y25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB25" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6902,13 +6894,13 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>1</v>
@@ -6917,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AN25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6930,19 +6922,19 @@
         <v>171</v>
       </c>
       <c r="AP25" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AQ25" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="AR25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU25" s="1" t="n">
         <v>0</v>
@@ -6958,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,72 +6961,72 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C26" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K26" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="S26" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="Y26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB26" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7045,16 +7037,16 @@
         <v>1</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0</v>
@@ -7063,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AN26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7076,19 +7068,19 @@
         <v>171</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU26" s="1" t="n">
         <v>1</v>
@@ -7104,13 +7096,13 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,72 +7110,72 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K27" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K27" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="Y27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB27" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7194,16 +7186,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AJ27" s="1" t="n">
         <v>0</v>
@@ -7212,32 +7204,32 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AM27" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AN27" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP27" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AN27" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO27" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP27" s="1" t="s">
+      <c r="AQ27" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AQ27" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AR27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU27" s="1" t="n">
         <v>0</v>
@@ -7253,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,72 +7259,72 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="Y28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB28" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7343,16 +7335,16 @@
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AJ28" s="1" t="n">
         <v>0</v>
@@ -7361,32 +7353,32 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AM28" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AN28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP28" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="AN28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP28" s="1" t="s">
+      <c r="AQ28" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="AQ28" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="AR28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU28" s="1" t="n">
         <v>0</v>
@@ -7402,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,7 +7408,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C29" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7426,56 +7418,56 @@
         <v>3600</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K29" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K29" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="Y29" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB29" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7486,47 +7478,47 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AF29" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM29" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="AG29" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AM29" s="1" t="s">
+      <c r="AN29" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AN29" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP29" s="1" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT29" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="AU29" s="1" t="n">
         <v>0</v>
@@ -7542,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,69 +7548,69 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K30" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="AA30" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB30" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7629,16 +7621,16 @@
         <v>1</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AJ30" s="1" t="n">
         <v>0</v>
@@ -7647,32 +7639,32 @@
         <v>0</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AM30" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AN30" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP30" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="AN30" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP30" s="1" t="s">
+      <c r="AQ30" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AR30" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="AR30" s="1" t="s">
+      <c r="AS30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT30" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="AU30" s="1" t="n">
         <v>0</v>
@@ -7688,16 +7680,16 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="BA30" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="BA30" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="BB30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7697,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C31" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7715,56 +7707,56 @@
         <v>900</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="X31" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="Y31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB31" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7775,13 +7767,13 @@
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ31" s="1" t="n">
         <v>0</v>
@@ -7790,32 +7782,32 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AM31" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AN31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="AN31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="AU31" s="1" t="n">
         <v>0</v>
@@ -7831,10 +7823,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,69 +7834,69 @@
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C32" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K32" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K32" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="Y32" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB32" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7915,16 +7907,16 @@
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AJ32" s="1" t="n">
         <v>0</v>
@@ -7933,32 +7925,32 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AM32" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AN32" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP32" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="AN32" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP32" s="1" t="s">
+      <c r="AQ32" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AQ32" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="AR32" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT32" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="AS32" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="AU32" s="1" t="n">
         <v>1</v>
@@ -7974,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,7 +7980,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C33" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7998,56 +7990,56 @@
         <v>3600</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K33" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="Y33" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB33" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8058,13 +8050,13 @@
         <v>1</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ33" s="1" t="n">
         <v>1</v>
@@ -8073,32 +8065,32 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AM33" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AN33" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP33" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="AN33" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP33" s="1" t="s">
+      <c r="AQ33" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="AQ33" s="1" t="s">
+      <c r="AR33" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT33" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS33" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="AU33" s="1" t="n">
         <v>0</v>
@@ -8114,13 +8106,13 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,101 +8120,101 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U34" s="1" t="s">
+      <c r="X34" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="Y34" s="1" t="s">
+      <c r="AJ34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AM34" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE34" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG34" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI34" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="AJ34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="AM34" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="AN34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8232,19 +8224,19 @@
         <v>171</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU34" s="1" t="n">
         <v>0</v>
@@ -8260,16 +8252,16 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="BB34" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="BB34" s="1" t="s">
+      <c r="BC34" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="BC34" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="BG34" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,7 +8269,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8287,56 +8279,56 @@
         <v>3600</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K35" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K35" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="X35" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="Y35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB35" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8347,25 +8339,25 @@
         <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AF35" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AM35" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="AG35" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="AN35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8375,19 +8367,19 @@
         <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="AQ35" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="AR35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU35" s="1" t="n">
         <v>0</v>
@@ -8403,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,123 +8406,123 @@
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U36" s="1" t="s">
+      <c r="X36" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="Y36" s="1" t="s">
+      <c r="AJ36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM36" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AJ36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AM36" s="1" t="s">
+      <c r="AN36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP36" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="AN36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT36" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="AU36" s="1" t="n">
         <v>0</v>
@@ -8546,16 +8538,16 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BB36" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="BC36" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="BC36" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="BG36" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8563,69 +8555,69 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="C37" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K37" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K37" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="Y37" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB37" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8636,16 +8628,16 @@
         <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AJ37" s="1" t="n">
         <v>1</v>
@@ -8654,32 +8646,32 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AM37" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="AN37" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP37" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="AN37" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO37" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP37" s="1" t="s">
+      <c r="AQ37" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="AQ37" s="1" t="s">
+      <c r="AR37" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="AR37" s="1" t="s">
+      <c r="AS37" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="AS37" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="AT37" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU37" s="1" t="n">
         <v>0</v>
@@ -8695,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,123 +8698,123 @@
         <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="J38" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U38" s="1" t="s">
+      <c r="X38" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="Y38" s="1" t="s">
+      <c r="AJ38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AM38" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="Z38" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="AJ38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="AM38" s="1" t="s">
+      <c r="AN38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP38" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="AN38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO38" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP38" s="1" t="s">
+      <c r="AQ38" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="AQ38" s="1" t="s">
+      <c r="AR38" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="AR38" s="1" t="s">
+      <c r="AS38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT38" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="AU38" s="1" t="n">
         <v>0</v>
@@ -8838,16 +8830,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BB38" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="BC38" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="BC38" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="BG38" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -11151,8 +11143,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11244,28 +11236,25 @@
       <c r="K2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="H3" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11281,28 +11270,25 @@
       <c r="K3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="H4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11318,65 +11304,59 @@
       <c r="K4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="J5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="H6" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11392,28 +11372,25 @@
       <c r="K6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11427,30 +11404,27 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11464,30 +11438,27 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="H9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11503,28 +11474,25 @@
       <c r="K9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11540,28 +11508,25 @@
       <c r="K10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11575,30 +11540,27 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="H12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11612,30 +11574,27 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -11649,35 +11608,32 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11685,32 +11641,32 @@
         <v>219</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11718,16 +11674,16 @@
         <v>219</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -11748,7 +11704,7 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -11787,7 +11743,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="62.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11795,100 +11751,100 @@
         <v>206</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>212</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11899,603 +11855,603 @@
         <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>218</v>
       </c>
       <c r="AD2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="AD6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG10" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE11" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="AF12" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG13" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="AD14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="AD15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/lp_tenant_importer/samples/core_config.xlsx
+++ b/lp_tenant_importer/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="804">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -2979,7 +2979,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B14:B15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3179,7 +3179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B14:B15 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3444,7 +3444,7 @@
   <dimension ref="A1:BG38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B14:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8861,7 +8861,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="B14:B15 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9170,7 +9170,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B14:B15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9379,7 +9379,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="1" sqref="B14:B15 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9651,7 +9651,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="B14:B15 F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10031,7 +10031,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="1" sqref="B14:B15 F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10425,7 +10425,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B14:B15 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11143,8 +11143,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11704,8 +11704,8 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12424,6 +12424,9 @@
       <c r="A14" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>298</v>
       </c>
@@ -12440,6 +12443,9 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>298</v>

--- a/lp_tenant_importer/samples/core_config.xlsx
+++ b/lp_tenant_importer/samples/core_config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="805">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t xml:space="preserve">core-vs2-p001esarsam | core-vs2-p001esarsam.local.ld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_as_proxy</t>
   </si>
   <si>
     <t xml:space="preserve">group_id</t>
@@ -2979,7 +2982,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B14:B15 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3179,7 +3182,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B14:B15 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3194,7 +3197,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
@@ -3206,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>155</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>220</v>
@@ -3227,12 +3230,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>240</v>
@@ -3245,108 +3248,108 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D4" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D7" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D8" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3355,74 +3358,74 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D10" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D12" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D13" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3444,188 +3447,188 @@
   <dimension ref="A1:BG38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B14:B15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,69 +3636,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB2" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3706,50 +3709,50 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AJ2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN2" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU2" s="1" t="n">
         <v>0</v>
@@ -3761,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,60 +3772,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>303</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AB3" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3833,47 +3836,47 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="AM3" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>0</v>
@@ -3885,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3903,56 +3906,56 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB4" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3963,47 +3966,47 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="AM4" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN4" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0</v>
@@ -4015,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C5" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4033,56 +4036,56 @@
         <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB5" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4093,47 +4096,47 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AN5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AN5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,60 +4156,60 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>303</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AB6" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4217,14 +4220,14 @@
         <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
       </c>
@@ -4232,32 +4235,32 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>0</v>
@@ -4273,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4300,13 +4303,13 @@
         <v>7200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4316,43 +4319,43 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB7" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4363,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>2</v>
@@ -4378,32 +4381,32 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN7" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>0</v>
@@ -4419,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,7 +4436,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4443,13 +4446,13 @@
         <v>3600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4459,43 +4462,43 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB8" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4506,47 +4509,47 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="AM8" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN8" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>0</v>
@@ -4562,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,26 +4576,26 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K9" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4602,43 +4605,43 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB9" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4649,50 +4652,50 @@
         <v>1</v>
       </c>
       <c r="AE9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="AJ9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="AM9" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN9" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>0</v>
@@ -4708,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4719,7 +4722,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4729,13 +4732,13 @@
         <v>3600</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4745,43 +4748,43 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB10" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4792,25 +4795,25 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="AM10" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4820,19 +4823,19 @@
         <v>171</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU10" s="1" t="n">
         <v>0</v>
@@ -4848,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,92 +4862,92 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AJ11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AJ11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="AM11" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4954,19 +4957,19 @@
         <v>171</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU11" s="1" t="n">
         <v>0</v>
@@ -4982,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +4996,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5003,56 +5006,56 @@
         <v>43200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB12" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5063,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>12</v>
@@ -5078,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5091,19 +5094,19 @@
         <v>171</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU12" s="1" t="n">
         <v>0</v>
@@ -5119,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,101 +5133,101 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AJ13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="AJ13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="AU13" s="1" t="n">
         <v>0</v>
@@ -5240,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,7 +5254,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5261,13 +5264,13 @@
         <v>7200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5277,43 +5280,43 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5324,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>2</v>
@@ -5339,32 +5342,32 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN14" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>0</v>
@@ -5380,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,7 +5397,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5404,13 +5407,13 @@
         <v>7200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5420,43 +5423,43 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5467,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>2</v>
@@ -5482,32 +5485,32 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AN15" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AN15" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="AU15" s="1" t="n">
         <v>0</v>
@@ -5523,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,7 +5540,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5547,13 +5550,13 @@
         <v>7200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5563,43 +5566,43 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5610,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>2</v>
@@ -5625,32 +5628,32 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN16" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AU16" s="1" t="n">
         <v>0</v>
@@ -5666,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,26 +5680,26 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K17" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5706,43 +5709,43 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB17" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5753,50 +5756,50 @@
         <v>1</v>
       </c>
       <c r="AE17" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AJ17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="AM17" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN17" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AU17" s="1" t="n">
         <v>1</v>
@@ -5812,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,7 +5826,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5833,13 +5836,13 @@
         <v>3600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5849,43 +5852,43 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5896,47 +5899,47 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="AM18" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN18" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP18" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AT18" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="AU18" s="1" t="n">
         <v>0</v>
@@ -5952,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,7 +5966,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5973,13 +5976,13 @@
         <v>3600</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5989,43 +5992,43 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6036,47 +6039,47 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="AM19" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN19" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AU19" s="1" t="n">
         <v>0</v>
@@ -6092,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,26 +6106,26 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K20" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6132,43 +6135,43 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB20" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6179,50 +6182,50 @@
         <v>1</v>
       </c>
       <c r="AE20" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AJ20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AJ20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="AM20" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN20" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AU20" s="1" t="n">
         <v>1</v>
@@ -6238,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,26 +6252,26 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K21" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6278,43 +6281,43 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB21" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6325,50 +6328,50 @@
         <v>1</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AJ21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="AM21" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AN21" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AU21" s="1" t="n">
         <v>1</v>
@@ -6384,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,69 +6398,69 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB22" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6468,28 +6471,28 @@
         <v>1</v>
       </c>
       <c r="AE22" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI22" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AJ22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AJ22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="AM22" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN22" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6499,19 +6502,19 @@
         <v>171</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU22" s="1" t="n">
         <v>1</v>
@@ -6527,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,69 +6544,69 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB23" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6614,50 +6617,50 @@
         <v>1</v>
       </c>
       <c r="AE23" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AJ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="AJ23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="AM23" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AN23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>0</v>
@@ -6673,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BD23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +6690,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6697,56 +6700,56 @@
         <v>3600</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K24" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB24" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6757,25 +6760,25 @@
         <v>1</v>
       </c>
       <c r="AE24" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="AF24" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="AM24" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AN24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6785,19 +6788,19 @@
         <v>171</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU24" s="1" t="n">
         <v>0</v>
@@ -6813,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,7 +6827,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6834,56 +6837,56 @@
         <v>3600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K25" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB25" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -6894,25 +6897,25 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="AM25" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AN25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6922,19 +6925,19 @@
         <v>171</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU25" s="1" t="n">
         <v>0</v>
@@ -6950,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6961,26 +6964,26 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C26" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6990,43 +6993,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB26" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7037,28 +7040,28 @@
         <v>1</v>
       </c>
       <c r="AE26" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AJ26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="AM26" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7068,19 +7071,19 @@
         <v>171</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU26" s="1" t="n">
         <v>1</v>
@@ -7096,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BD26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,26 +7113,26 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K27" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7139,43 +7142,43 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB27" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7186,50 +7189,50 @@
         <v>1</v>
       </c>
       <c r="AE27" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="AF27" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AJ27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="AJ27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="AM27" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AN27" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU27" s="1" t="n">
         <v>0</v>
@@ -7245,13 +7248,13 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BD27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,26 +7262,26 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K28" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7288,43 +7291,43 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB28" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7335,50 +7338,50 @@
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="AF28" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AJ28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="AJ28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="AM28" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU28" s="1" t="n">
         <v>0</v>
@@ -7394,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BD28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,7 +7411,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C29" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7418,56 +7421,56 @@
         <v>3600</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K29" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB29" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7478,47 +7481,47 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="AM29" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN29" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AU29" s="1" t="n">
         <v>0</v>
@@ -7534,13 +7537,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,69 +7551,69 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB30" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7621,50 +7624,50 @@
         <v>1</v>
       </c>
       <c r="AE30" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI30" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI30" s="1" t="s">
+      <c r="AJ30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="AJ30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="AM30" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AN30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AU30" s="1" t="n">
         <v>0</v>
@@ -7680,16 +7683,16 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,7 +7700,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C31" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7707,56 +7710,56 @@
         <v>900</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K31" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB31" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7767,47 +7770,47 @@
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="AF31" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="AM31" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AN31" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AU31" s="1" t="n">
         <v>0</v>
@@ -7823,10 +7826,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,69 +7837,69 @@
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB32" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -7907,50 +7910,50 @@
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI32" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="AF32" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AG32" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI32" s="1" t="s">
+      <c r="AJ32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="AJ32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="AM32" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AN32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AU32" s="1" t="n">
         <v>1</v>
@@ -7966,13 +7969,13 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,7 +7983,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C33" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7990,56 +7993,56 @@
         <v>3600</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K33" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB33" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8050,47 +8053,47 @@
         <v>1</v>
       </c>
       <c r="AE33" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AF33" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG33" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="AM33" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AN33" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AU33" s="1" t="n">
         <v>0</v>
@@ -8106,13 +8109,13 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,101 +8123,101 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W34" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD34" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AF34" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AG34" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI34" s="1" t="s">
+      <c r="AJ34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="AJ34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="AM34" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AN34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8224,19 +8227,19 @@
         <v>171</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU34" s="1" t="n">
         <v>0</v>
@@ -8252,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BB34" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,7 +8272,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8279,56 +8282,56 @@
         <v>3600</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K35" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB35" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8339,25 +8342,25 @@
         <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="AF35" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="AG35" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="AM35" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AN35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8367,19 +8370,19 @@
         <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AU35" s="1" t="n">
         <v>0</v>
@@ -8395,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,123 +8409,123 @@
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W36" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="AF36" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AJ36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="AJ36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="AM36" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AN36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AU36" s="1" t="n">
         <v>0</v>
@@ -8538,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,69 +8558,69 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB37" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -8628,50 +8631,50 @@
         <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="AF37" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI37" s="1" t="s">
+      <c r="AJ37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="AJ37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="AM37" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AN37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AU37" s="1" t="n">
         <v>0</v>
@@ -8687,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,69 +8701,69 @@
         <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB38" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8771,50 +8774,50 @@
         <v>1</v>
       </c>
       <c r="AE38" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="AF38" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI38" s="1" t="s">
+      <c r="AJ38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="AJ38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="AM38" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AS38" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AU38" s="1" t="n">
         <v>0</v>
@@ -8830,16 +8833,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BB38" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -8861,7 +8864,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="B14:B15 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9170,7 +9173,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B14:B15 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9379,7 +9382,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="1" sqref="B14:B15 I18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9651,7 +9654,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="B14:B15 F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10031,7 +10034,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="1" sqref="B14:B15 F44"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10425,7 +10428,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B14:B15 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11144,7 +11147,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:B15"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11704,8 +11707,8 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE19" activeCellId="0" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12437,7 +12440,7 @@
         <v>301</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,7 +12460,7 @@
         <v>301</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
